--- a/BurndownChart/Burndownchart projectwide.xlsx
+++ b/BurndownChart/Burndownchart projectwide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/magnram_ntnu_no/Documents/V2019/gruppe-35/BurndownChart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maggi\OneDrive - NTNU\V2019\gruppe-35\BurndownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4791DD3-12DF-4E99-B1C3-ADF141AC234B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{B4791DD3-12DF-4E99-B1C3-ADF141AC234B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5C438F19-3FBC-4EAB-96BA-5DB4293E680C}"/>
   <bookViews>
-    <workbookView xWindow="15876" yWindow="6444" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BacklogTable" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -322,11 +322,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -346,359 +344,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -780,6 +425,359 @@
         <name val="Segoe UI Light"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -872,11 +870,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 1</a:t>
+              <a:t>Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Burn Down</a:t>
+              <a:t> Down</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -947,10 +945,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDownTable!$B$3:$B$15</c:f>
+              <c:f>BurnDownTable!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -989,6 +987,96 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1106,25 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,10 +1204,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDownTable!$B$3:$B$15</c:f>
+              <c:f>BurnDownTable!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1140,6 +1246,96 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1350,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>47</c:v>
@@ -1169,7 +1365,25 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,10 +1441,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurnDownTable!$B$3:$B$15</c:f>
+              <c:f>BurnDownTable!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1269,16 +1483,106 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDownTable!$D$3:$D$15</c:f>
+              <c:f>BurnDownTable!$D$3:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>58.604651162790695</c:v>
                 </c:pt>
@@ -1317,6 +1621,96 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>41.860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.465116279069768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.069767441860463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.674418604651166</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.279069767441861</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.883720930232556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.488372093023258</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.093023255813954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.697674418604649</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.302325581395348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.906976744186046</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.511627906976742</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.116279069767444</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.720930232558139</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.325581395348834</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.930232558139537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.139534883720927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.744186046511629</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.348837209302324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.95348837209302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.558139534883722</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.162790697674417</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7674418604651123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3720930232558146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9767441860465098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.581395348837205</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1860465116279073</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7906976744186025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3953488372092977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,13 +1786,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>BurnDownTable!$B$3:$B$15</c15:sqref>
+                          <c15:sqref>BurnDownTable!$B$3:$B$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="43"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1437,6 +1831,96 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2318,14 +2802,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>13446</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>211230</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>211231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2359,33 +2843,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G23" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A2:G22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue ID" totalsRowLabel="6" dataDxfId="13" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue ID" totalsRowLabel="6" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours ved start" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours ved start" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours ved start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:F45" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:F45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B2:F45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="0" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="0" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="2">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*(TotalHours/43))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2656,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2705,7 +3189,7 @@
       <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2723,7 +3207,7 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2741,7 +3225,7 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2759,7 +3243,7 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2777,7 +3261,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2795,7 +3279,7 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2813,7 +3297,7 @@
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2831,7 +3315,7 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
@@ -2840,108 +3324,108 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>5</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>4</v>
       </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
@@ -2957,82 +3441,82 @@
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <f>IFERROR(B18+1,1)</f>
         <v>17</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>18</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
+      <c r="A21" s="4">
         <v>3</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>19</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
@@ -3048,7 +3532,7 @@
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
@@ -3088,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3138,7 +3622,7 @@
       <c r="E3" s="7">
         <v>60</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>20</v>
       </c>
     </row>
@@ -3155,9 +3639,9 @@
         <v>57.209302325581397</v>
       </c>
       <c r="E4" s="7">
-        <v>54</v>
-      </c>
-      <c r="F4" s="12">
+        <v>55</v>
+      </c>
+      <c r="F4" s="11">
         <v>18</v>
       </c>
     </row>
@@ -3175,7 +3659,7 @@
       <c r="E5" s="7">
         <v>47</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3193,7 +3677,7 @@
       <c r="E6" s="7">
         <v>47</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3211,7 +3695,7 @@
       <c r="E7" s="7">
         <v>43</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>14</v>
       </c>
     </row>
@@ -3229,7 +3713,7 @@
       <c r="E8" s="7">
         <v>43</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>14</v>
       </c>
     </row>
@@ -3245,10 +3729,10 @@
         <v>50.232558139534888</v>
       </c>
       <c r="E9" s="7">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="F9" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -3262,8 +3746,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>48.837209302325583</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="7">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -3276,8 +3764,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>47.441860465116278</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="7">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -3290,8 +3782,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>46.04651162790698</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="7">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -3304,8 +3800,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>44.651162790697676</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="7">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -3318,8 +3818,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>43.255813953488371</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="7">
+        <v>27</v>
+      </c>
+      <c r="F14" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -3332,8 +3836,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>41.860465116279073</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="7">
+        <v>18</v>
+      </c>
+      <c r="F15" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -3348,7 +3856,7 @@
         <v>40.465116279069768</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
@@ -3363,7 +3871,7 @@
         <v>39.069767441860463</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
@@ -3378,7 +3886,7 @@
         <v>37.674418604651166</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
@@ -3393,7 +3901,7 @@
         <v>36.279069767441861</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
@@ -3408,7 +3916,7 @@
         <v>34.883720930232556</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
@@ -3423,7 +3931,7 @@
         <v>33.488372093023258</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
@@ -3438,7 +3946,7 @@
         <v>32.093023255813954</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
@@ -3453,7 +3961,7 @@
         <v>30.697674418604649</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
@@ -3468,7 +3976,7 @@
         <v>29.302325581395348</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
@@ -3483,7 +3991,7 @@
         <v>27.906976744186046</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
@@ -3498,7 +4006,7 @@
         <v>26.511627906976742</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
@@ -3513,7 +4021,7 @@
         <v>25.116279069767444</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
@@ -3528,7 +4036,7 @@
         <v>23.720930232558139</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
@@ -3543,7 +4051,7 @@
         <v>22.325581395348834</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
@@ -3558,7 +4066,7 @@
         <v>20.930232558139537</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
@@ -3573,7 +4081,7 @@
         <v>19.534883720930232</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
@@ -3588,7 +4096,7 @@
         <v>18.139534883720927</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
@@ -3603,7 +4111,7 @@
         <v>16.744186046511629</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
@@ -3618,7 +4126,7 @@
         <v>15.348837209302324</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
@@ -3633,7 +4141,7 @@
         <v>13.95348837209302</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
@@ -3648,7 +4156,7 @@
         <v>12.558139534883722</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
@@ -3663,7 +4171,7 @@
         <v>11.162790697674417</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
@@ -3678,7 +4186,7 @@
         <v>9.7674418604651123</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
@@ -3693,7 +4201,7 @@
         <v>8.3720930232558146</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
@@ -3708,7 +4216,7 @@
         <v>6.9767441860465098</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
@@ -3723,7 +4231,7 @@
         <v>5.581395348837205</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
@@ -3738,7 +4246,7 @@
         <v>4.1860465116279073</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
@@ -3753,7 +4261,7 @@
         <v>2.7906976744186025</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
@@ -3768,7 +4276,7 @@
         <v>1.3953488372092977</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
@@ -3783,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BurndownChart/Burndownchart projectwide.xlsx
+++ b/BurndownChart/Burndownchart projectwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maggi\OneDrive - NTNU\V2019\gruppe-35\BurndownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{B4791DD3-12DF-4E99-B1C3-ADF141AC234B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5C438F19-3FBC-4EAB-96BA-5DB4293E680C}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{B4791DD3-12DF-4E99-B1C3-ADF141AC234B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1D49CA66-2B07-4410-8758-3D40700483BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Issue ID</t>
   </si>
   <si>
-    <t>User stories left in sprint</t>
-  </si>
-  <si>
     <t>Kommentarer</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Søndag 10</t>
+  </si>
+  <si>
+    <t>User stories left</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -319,7 +319,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -925,7 +924,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User stories left in sprint</c:v>
+                  <c:v>User stories left</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1124,6 +1123,12 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1383,6 +1388,9 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -2869,7 +2877,7 @@
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*(TotalHours/43))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3164,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3189,13 +3197,13 @@
       <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
@@ -3207,13 +3215,13 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
@@ -3225,13 +3233,13 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>4</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
@@ -3243,13 +3251,13 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>1</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -3261,13 +3269,13 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
@@ -3279,13 +3287,13 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
@@ -3297,13 +3305,13 @@
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>4</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
@@ -3315,121 +3323,121 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>5</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>4</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>14</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
@@ -3441,86 +3449,86 @@
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <f>IFERROR(B18+1,1)</f>
         <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>2</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>3</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>19</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3530,13 +3538,13 @@
       <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
         <f>SprintBacklog[[#This Row],[Estimated Hours ved start]]</f>
         <v>3</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
@@ -3572,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3600,16 +3608,16 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -3622,13 +3630,13 @@
       <c r="E3" s="7">
         <v>60</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -3641,13 +3649,13 @@
       <c r="E4" s="7">
         <v>55</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -3659,13 +3667,13 @@
       <c r="E5" s="7">
         <v>47</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -3677,13 +3685,13 @@
       <c r="E6" s="7">
         <v>47</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -3695,13 +3703,13 @@
       <c r="E7" s="7">
         <v>43</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -3713,13 +3721,13 @@
       <c r="E8" s="7">
         <v>43</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -3731,13 +3739,13 @@
       <c r="E9" s="7">
         <v>40</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -3749,13 +3757,13 @@
       <c r="E10" s="7">
         <v>31</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -3767,13 +3775,13 @@
       <c r="E11" s="7">
         <v>31</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -3785,13 +3793,13 @@
       <c r="E12" s="7">
         <v>31</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -3803,13 +3811,13 @@
       <c r="E13" s="7">
         <v>31</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -3821,13 +3829,13 @@
       <c r="E14" s="7">
         <v>27</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -3839,459 +3847,467 @@
       <c r="E15" s="7">
         <v>18</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>40.465116279069768</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="7">
+        <v>18</v>
+      </c>
+      <c r="F16" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>39.069767441860463</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="7">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>37.674418604651166</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>36.279069767441861</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>34.883720930232556</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>33.488372093023258</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>32.093023255813954</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>30.697674418604649</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>29.302325581395348</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>27.906976744186046</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>26.511627906976742</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>25.116279069767444</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>23.720930232558139</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>22.325581395348834</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>20.930232558139537</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>19.534883720930232</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>18.139534883720927</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>16.744186046511629</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>15.348837209302324</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>13.95348837209302</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>12.558139534883722</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>11.162790697674417</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>9.7674418604651123</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>8.3720930232558146</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>6.9767441860465098</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>5.581395348837205</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="13"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>4.1860465116279073</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>2.7906976744186025</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>1.3953488372092977</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="6">
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>0</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BurndownChart/Burndownchart projectwide.xlsx
+++ b/BurndownChart/Burndownchart projectwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maggi\OneDrive - NTNU\V2019\gruppe-35\BurndownChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsdigerud/Desktop/gruppe-35/BurndownChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{B4791DD3-12DF-4E99-B1C3-ADF141AC234B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1D49CA66-2B07-4410-8758-3D40700483BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D0A44-3976-0F45-B6E5-71C8D248B309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="1540" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BacklogTable" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,13 +1123,34 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,10 +1368,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurnDownTable!$E$3:$E$16</c:f>
+              <c:f>BurnDownTable!$E$3:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -1388,10 +1409,34 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,22 +3194,22 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="48">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3205,7 +3250,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3223,7 +3268,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3241,7 +3286,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3259,7 +3304,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3277,7 +3322,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3295,7 +3340,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3313,7 +3358,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3331,7 +3376,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -3349,7 +3394,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3367,7 +3412,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3385,7 +3430,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3403,7 +3448,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3421,7 +3466,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -3439,7 +3484,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -3457,7 +3502,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -3475,7 +3520,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -3494,7 +3539,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -3512,7 +3557,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -3530,7 +3575,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>20</v>
@@ -3546,7 +3591,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3580,22 +3625,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1"/>
-    <col min="6" max="6" width="27.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1"/>
-    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="7.88671875" style="1"/>
+    <col min="5" max="5" width="7.83203125" style="1"/>
+    <col min="6" max="6" width="27.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1"/>
+    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="48">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3615,7 +3660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3634,7 +3679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3653,7 +3698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3671,7 +3716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3707,7 +3752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3725,7 +3770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,7 +3788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3761,7 +3806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3779,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3797,7 +3842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3815,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3833,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3845,13 +3890,13 @@
         <v>41.860465116279073</v>
       </c>
       <c r="E15" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -3864,13 +3909,13 @@
         <v>40.465116279069768</v>
       </c>
       <c r="E16" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -3883,13 +3928,13 @@
         <v>39.069767441860463</v>
       </c>
       <c r="E17" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3901,10 +3946,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>37.674418604651166</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E18" s="7">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3916,10 +3965,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>36.279069767441861</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E19" s="7">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3931,10 +3984,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>34.883720930232556</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E20" s="7">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3946,10 +4003,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>33.488372093023258</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E21" s="7">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -3961,10 +4022,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>32.093023255813954</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E22" s="7">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -3976,10 +4041,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>30.697674418604649</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E23" s="7">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -3991,10 +4060,14 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>29.302325581395348</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E24" s="7">
+        <v>14</v>
+      </c>
+      <c r="F24" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4009,7 +4082,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -4024,7 +4097,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4039,7 +4112,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4054,7 +4127,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4069,7 +4142,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4084,7 +4157,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -4099,7 +4172,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -4114,7 +4187,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4129,7 +4202,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -4144,7 +4217,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -4159,7 +4232,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -4174,7 +4247,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -4189,7 +4262,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -4204,7 +4277,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -4219,7 +4292,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -4234,7 +4307,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -4249,7 +4322,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -4264,7 +4337,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -4279,7 +4352,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -4294,7 +4367,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>

--- a/BurndownChart/Burndownchart projectwide.xlsx
+++ b/BurndownChart/Burndownchart projectwide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsdigerud/Desktop/gruppe-35/BurndownChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D0A44-3976-0F45-B6E5-71C8D248B309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC1335D-58A2-6B47-A3E7-070A9EFD1B2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="1540" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,6 +1152,69 @@
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1437,6 +1500,69 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,8 +3751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15"/>
@@ -4079,8 +4205,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>27.906976744186046</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="7">
+        <v>14</v>
+      </c>
+      <c r="F25" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
@@ -4094,8 +4224,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>26.511627906976742</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="7">
+        <v>14</v>
+      </c>
+      <c r="F26" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
@@ -4109,8 +4243,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>25.116279069767444</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="7">
+        <v>11</v>
+      </c>
+      <c r="F27" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
@@ -4124,8 +4262,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>23.720930232558139</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="7">
+        <v>11</v>
+      </c>
+      <c r="F28" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
@@ -4139,8 +4281,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>22.325581395348834</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="7">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
@@ -4154,8 +4300,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>20.930232558139537</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="7">
+        <v>8</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
@@ -4169,8 +4319,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>19.534883720930232</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
@@ -4184,8 +4338,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>18.139534883720927</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
@@ -4199,8 +4357,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>16.744186046511629</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
@@ -4214,8 +4376,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>15.348837209302324</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
@@ -4229,8 +4395,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>13.95348837209302</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
@@ -4244,8 +4414,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>12.558139534883722</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
@@ -4259,8 +4433,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>11.162790697674417</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
@@ -4274,8 +4452,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>9.7674418604651123</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="12"/>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
@@ -4289,8 +4471,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>8.3720930232558146</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
@@ -4304,8 +4490,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>6.9767441860465098</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="12"/>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
@@ -4319,8 +4509,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>5.581395348837205</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="12"/>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
@@ -4334,8 +4528,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>4.1860465116279073</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="12"/>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
@@ -4349,8 +4547,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>2.7906976744186025</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
@@ -4364,8 +4566,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>1.3953488372092977</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="12"/>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
@@ -4379,8 +4585,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/43))</f>
         <v>0</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="12"/>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
